--- a/data/trans_orig/P14C33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C33-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789F8438-0671-49C8-8B81-A930E8ED58DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F64243-1A05-41E7-8176-A336CF5C5E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6EC7D9DC-2152-4966-B013-7FDDB8604A3F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D648CD1-AA23-466C-95E6-143A9C498E58}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A7543A-F0CC-4EAC-B492-39399B0E92E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5CFFAE-D7EC-4FBF-B107-C93D030B08F6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C33-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C33-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4F64243-1A05-41E7-8176-A336CF5C5E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01E34A14-31F1-4CB8-8038-0579DB9CCFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5D648CD1-AA23-466C-95E6-143A9C498E58}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B241F906-7957-4652-B799-5C3899155783}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="35">
   <si>
-    <t>Población según el tiempo de diagnóstico del esterilidad en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población según el tiempo de diagnóstico del esterilidad en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -128,7 +128,7 @@
     <t>78,19%</t>
   </si>
   <si>
-    <t>19,22%</t>
+    <t>19,21%</t>
   </si>
   <si>
     <t>37,3%</t>
@@ -137,7 +137,7 @@
     <t>21,81%</t>
   </si>
   <si>
-    <t>80,78%</t>
+    <t>80,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5CFFAE-D7EC-4FBF-B107-C93D030B08F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68EEDBF-9A6A-4367-A491-11B7461037F4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
